--- a/PropProAssistant/Models/PortalCompPubl/PCP_02 - Cópia .xlsx
+++ b/PropProAssistant/Models/PortalCompPubl/PCP_02 - Cópia .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Número do Processo (Não edite)</t>
   </si>
@@ -73,15 +73,27 @@
     <t>Ambroxol, cloridrato 3 mg/ml, Xarope Infantil, Frasco 120 ml:</t>
   </si>
   <si>
+    <t>Farmace</t>
+  </si>
+  <si>
     <t>amiodarona cloridrato 50 mg/ml 3ml ampola 3 ml:</t>
   </si>
   <si>
+    <t>Hipolabor</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMIODARONA  CLORIDATO 200 MG:</t>
   </si>
   <si>
+    <t>Hypofarma</t>
+  </si>
+  <si>
     <t>Amoxicilina + clavulanato de potassio 500 mg + 125 mg:</t>
   </si>
   <si>
+    <t>Isofarma</t>
+  </si>
+  <si>
     <t>Amoxicilina po para suspensao oral 50 mg/ml - frasco 60 ml:</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t xml:space="preserve">AMPICILINA 250 MG/5ML  FRASCO COM 60 ML AMPICILINA 250 MG/5ML  FRASCO COM 60 ML:</t>
   </si>
   <si>
+    <t>EMS</t>
+  </si>
+  <si>
     <t>Anlodipino 5 mg:</t>
   </si>
   <si>
@@ -121,6 +136,9 @@
     <t>Biperideno(lactato) 5mg/ml, ampola 1 ml:</t>
   </si>
   <si>
+    <t>Teuto</t>
+  </si>
+  <si>
     <t>BROMETO DE IPRATROPIO 0 25 MG/ML FRASCO 20 ML BROMETO DE IPRATROPIO 0 25 MG/ML FRASCO 20 ML:</t>
   </si>
   <si>
@@ -163,6 +181,9 @@
     <t xml:space="preserve">Clopixol  depot 200 mg, Ampola 1 ml:</t>
   </si>
   <si>
+    <t>Blau</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLORETO DE POTASSIO 19-1  AMPOLA 10 ML:</t>
   </si>
   <si>
@@ -247,9 +268,15 @@
     <t>Fenobarbital (Sodico) 100 mg:</t>
   </si>
   <si>
+    <t>Sanval</t>
+  </si>
+  <si>
     <t>Flumazenil 0,1mg/ml, ampola 05 ml:</t>
   </si>
   <si>
+    <t>Cristália</t>
+  </si>
+  <si>
     <t>Fluoxetina, (cloridrato) 20 mg:</t>
   </si>
   <si>
@@ -277,6 +304,9 @@
     <t>IMIPRAMINA 25MG.:</t>
   </si>
   <si>
+    <t>Takeda</t>
+  </si>
+  <si>
     <t>INDAPAMIDA 1,5 MG:</t>
   </si>
   <si>
@@ -304,6 +334,9 @@
     <t xml:space="preserve">Lorazepam  2 mg :</t>
   </si>
   <si>
+    <t>Mylan</t>
+  </si>
+  <si>
     <t>Manitol Solucao 20%, Frasco 250ml:</t>
   </si>
   <si>
@@ -427,6 +460,9 @@
     <t>Vitamina B1(Tiamina), injetavel:</t>
   </si>
   <si>
+    <t>Halex Istar</t>
+  </si>
+  <si>
     <t>Vitamina C (ascorbato de Sodio) 100 mg/ml, Ampola 05 ml:</t>
   </si>
   <si>
@@ -440,6 +476,21 @@
   </si>
   <si>
     <t>Fenobarbital (Sodico) 100mg/ml, Ampola 02 ml:</t>
+  </si>
+  <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>União Química</t>
+  </si>
+  <si>
+    <t>Eurofarma</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,13 +1468,13 @@
         <v>2800</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="0">
+        <v>4.42</v>
       </c>
     </row>
     <row r="6">
@@ -1437,19 +1488,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0">
         <v>200</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J6" s="0">
+        <v>7.15</v>
       </c>
     </row>
     <row r="7">
@@ -1463,19 +1514,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0">
         <v>400</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="0">
+        <v>2.99</v>
       </c>
     </row>
     <row r="8">
@@ -1489,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0">
         <v>1700</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -1515,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="0">
         <v>1500</v>
@@ -1541,19 +1592,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0">
         <v>600</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J10" s="0">
+        <v>12.87</v>
       </c>
     </row>
     <row r="11">
@@ -1567,19 +1618,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0">
         <v>300</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="J11" s="0">
+        <v>76.7</v>
       </c>
     </row>
     <row r="12">
@@ -1593,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0">
         <v>3950</v>
@@ -1619,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E13" s="0">
         <v>900</v>
@@ -1645,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0">
         <v>500</v>
@@ -1671,7 +1722,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0">
         <v>2000</v>
@@ -1697,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16" s="0">
         <v>2000</v>
@@ -1723,7 +1774,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E17" s="0">
         <v>950</v>
@@ -1749,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E18" s="0">
         <v>1400</v>
@@ -1775,7 +1826,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E19" s="0">
         <v>100</v>
@@ -1801,7 +1852,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E20" s="0">
         <v>500</v>
@@ -1827,19 +1878,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E21" s="0">
         <v>300</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J21" s="0">
+        <v>12.35</v>
       </c>
     </row>
     <row r="22">
@@ -1853,7 +1904,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E22" s="0">
         <v>550</v>
@@ -1879,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E23" s="0">
         <v>530</v>
@@ -1905,7 +1956,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E24" s="0">
         <v>1500</v>
@@ -1931,7 +1982,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E25" s="0">
         <v>1550</v>
@@ -1957,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E26" s="0">
         <v>1550</v>
@@ -1983,19 +2034,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E27" s="0">
         <v>3100</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J27" s="0">
+        <v>3.38</v>
       </c>
     </row>
     <row r="28">
@@ -2009,7 +2060,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E28" s="0">
         <v>900</v>
@@ -2035,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E29" s="0">
         <v>1500</v>
@@ -2061,7 +2112,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E30" s="0">
         <v>300</v>
@@ -2087,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E31" s="0">
         <v>300</v>
@@ -2113,7 +2164,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E32" s="0">
         <v>200</v>
@@ -2139,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E33" s="0">
         <v>720</v>
@@ -2165,7 +2216,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E34" s="0">
         <v>6000</v>
@@ -2191,19 +2242,19 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E35" s="0">
         <v>350</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="J35" s="0">
+        <v>8.97</v>
       </c>
     </row>
     <row r="36">
@@ -2217,19 +2268,19 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E36" s="0">
         <v>600</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J36" s="0">
+        <v>17.55</v>
       </c>
     </row>
     <row r="37">
@@ -2243,19 +2294,19 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E37" s="0">
         <v>600</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="J37" s="0">
+        <v>6.37</v>
       </c>
     </row>
     <row r="38">
@@ -2269,7 +2320,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E38" s="0">
         <v>600</v>
@@ -2295,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E39" s="0">
         <v>600</v>
@@ -2321,7 +2372,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E40" s="0">
         <v>1500</v>
@@ -2347,19 +2398,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E41" s="0">
         <v>450</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J41" s="0">
+        <v>3.25</v>
       </c>
     </row>
     <row r="42">
@@ -2373,7 +2424,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E42" s="0">
         <v>900</v>
@@ -2399,19 +2450,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E43" s="0">
         <v>2000</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="J43" s="0">
+        <v>44.2</v>
       </c>
     </row>
     <row r="44">
@@ -2425,7 +2476,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E44" s="0">
         <v>2300</v>
@@ -2451,7 +2502,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E45" s="0">
         <v>1220</v>
@@ -2477,7 +2528,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E46" s="0">
         <v>100</v>
@@ -2503,7 +2554,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E47" s="0">
         <v>960</v>
@@ -2529,7 +2580,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E48" s="0">
         <v>1100</v>
@@ -2555,7 +2606,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E49" s="0">
         <v>1080</v>
@@ -2581,7 +2632,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E50" s="0">
         <v>300</v>
@@ -2607,7 +2658,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E51" s="0">
         <v>100</v>
@@ -2633,7 +2684,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E52" s="0">
         <v>900</v>
@@ -2659,7 +2710,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E53" s="0">
         <v>700</v>
@@ -2685,7 +2736,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E54" s="0">
         <v>3600</v>
@@ -2711,7 +2762,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E55" s="0">
         <v>100</v>
@@ -2737,7 +2788,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E56" s="0">
         <v>1000</v>
@@ -2763,7 +2814,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E57" s="0">
         <v>12000</v>
@@ -2789,7 +2840,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E58" s="0">
         <v>900</v>
@@ -2815,7 +2866,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E59" s="0">
         <v>400</v>
@@ -2841,7 +2892,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E60" s="0">
         <v>1200</v>
@@ -2867,7 +2918,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E61" s="0">
         <v>1800</v>
@@ -2893,7 +2944,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E62" s="0">
         <v>360</v>
@@ -2919,19 +2970,19 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E63" s="0">
         <v>1900</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="J63" s="0">
+        <v>3.9</v>
       </c>
     </row>
     <row r="64">
@@ -2945,19 +2996,19 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E64" s="0">
         <v>150</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="J64" s="0">
+        <v>10.4</v>
       </c>
     </row>
     <row r="65">
@@ -2971,7 +3022,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E65" s="0">
         <v>200</v>
@@ -2997,19 +3048,19 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E66" s="0">
         <v>900</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J66" s="0">
+        <v>3.51</v>
       </c>
     </row>
     <row r="67">
@@ -3023,7 +3074,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E67" s="0">
         <v>300</v>
@@ -3049,7 +3100,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E68" s="0">
         <v>1800</v>
@@ -3075,7 +3126,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E69" s="0">
         <v>2000</v>
@@ -3101,7 +3152,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E70" s="0">
         <v>300</v>
@@ -3127,19 +3178,19 @@
         <v>70</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E71" s="0">
         <v>720</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J71" s="0">
+        <v>1.95</v>
       </c>
     </row>
     <row r="72">
@@ -3153,7 +3204,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E72" s="0">
         <v>4000</v>
@@ -3179,19 +3230,19 @@
         <v>72</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E73" s="0">
         <v>600</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="J73" s="0">
+        <v>24.7</v>
       </c>
     </row>
     <row r="74">
@@ -3205,7 +3256,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E74" s="0">
         <v>600</v>
@@ -3231,19 +3282,19 @@
         <v>74</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E75" s="0">
         <v>60</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J75" s="0">
+        <v>2.08</v>
       </c>
     </row>
     <row r="76">
@@ -3257,7 +3308,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E76" s="0">
         <v>200</v>
@@ -3283,7 +3334,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E77" s="0">
         <v>180</v>
@@ -3309,7 +3360,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E78" s="0">
         <v>300</v>
@@ -3335,7 +3386,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E79" s="0">
         <v>910</v>
@@ -3361,7 +3412,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E80" s="0">
         <v>300</v>
@@ -3387,19 +3438,19 @@
         <v>80</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E81" s="0">
         <v>700</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="J81" s="0">
+        <v>89.7</v>
       </c>
     </row>
     <row r="82">
@@ -3413,19 +3464,19 @@
         <v>81</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E82" s="0">
         <v>600</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="J82" s="0">
+        <v>29.9</v>
       </c>
     </row>
     <row r="83">
@@ -3439,7 +3490,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E83" s="0">
         <v>30</v>
@@ -3465,7 +3516,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E84" s="0">
         <v>1900</v>
@@ -3491,7 +3542,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E85" s="0">
         <v>900</v>
@@ -3517,7 +3568,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E86" s="0">
         <v>900</v>
@@ -3543,7 +3594,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E87" s="0">
         <v>600</v>
@@ -3569,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E88" s="0">
         <v>500</v>
@@ -3595,7 +3646,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E89" s="0">
         <v>1100</v>
@@ -3621,7 +3672,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E90" s="0">
         <v>2500</v>
@@ -3647,7 +3698,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E91" s="0">
         <v>800</v>
@@ -3673,19 +3724,19 @@
         <v>91</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E92" s="0">
         <v>1000</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J92" s="0">
+        <v>7.15</v>
       </c>
     </row>
     <row r="93">
@@ -3699,7 +3750,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E93" s="0">
         <v>1000</v>
@@ -3725,19 +3776,19 @@
         <v>93</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E94" s="0">
         <v>150</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J94" s="0">
+        <v>2.47</v>
       </c>
     </row>
     <row r="95">
@@ -3751,7 +3802,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E95" s="0">
         <v>6000</v>
@@ -3777,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E96" s="0">
         <v>2400</v>
@@ -3803,7 +3854,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E97" s="0">
         <v>600</v>
@@ -3829,7 +3880,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E98" s="0">
         <v>1500</v>
@@ -3855,7 +3906,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E99" s="0">
         <v>200</v>
@@ -3881,19 +3932,19 @@
         <v>99</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E100" s="0">
         <v>2300</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="J100" s="0">
+        <v>1.24</v>
       </c>
     </row>
     <row r="101">
@@ -3907,7 +3958,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E101" s="0">
         <v>40</v>
@@ -3933,7 +3984,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E102" s="0">
         <v>100</v>
@@ -3959,19 +4010,19 @@
         <v>102</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E103" s="0">
         <v>6</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="J103" s="0">
+        <v>11.57</v>
       </c>
     </row>
     <row r="104">
@@ -3985,7 +4036,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E104" s="0">
         <v>860</v>
@@ -4011,7 +4062,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E105" s="0">
         <v>250</v>
@@ -4037,7 +4088,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E106" s="0">
         <v>1500</v>
@@ -4063,19 +4114,19 @@
         <v>106</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E107" s="0">
         <v>1200</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="J107" s="0">
+        <v>6.37</v>
       </c>
     </row>
     <row r="108">
@@ -4089,19 +4140,19 @@
         <v>107</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E108" s="0">
         <v>920</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="J108" s="0">
+        <v>9.09</v>
       </c>
     </row>
     <row r="109">
@@ -4115,7 +4166,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E109" s="0">
         <v>600</v>
@@ -4141,7 +4192,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E110" s="0">
         <v>100</v>
@@ -4167,7 +4218,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E111" s="0">
         <v>100</v>
@@ -4193,7 +4244,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E112" s="0">
         <v>150</v>
@@ -4219,7 +4270,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E113" s="0">
         <v>70</v>
@@ -4245,7 +4296,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E114" s="0">
         <v>900</v>
@@ -4271,7 +4322,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E115" s="0">
         <v>450</v>
@@ -4297,7 +4348,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E116" s="0">
         <v>1350</v>
@@ -4323,7 +4374,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E117" s="0">
         <v>450</v>
@@ -4349,7 +4400,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E118" s="0">
         <v>600</v>
@@ -4375,7 +4426,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E119" s="0">
         <v>300</v>
@@ -4401,7 +4452,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E120" s="0">
         <v>200</v>
@@ -4427,7 +4478,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E121" s="0">
         <v>2000</v>
@@ -4453,7 +4504,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E122" s="0">
         <v>1400</v>
@@ -4479,19 +4530,19 @@
         <v>122</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E123" s="0">
         <v>8000</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>13</v>
+        <v>146</v>
+      </c>
+      <c r="J123" s="0">
+        <v>8.97</v>
       </c>
     </row>
     <row r="124">
@@ -4505,7 +4556,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E124" s="0">
         <v>7200</v>
@@ -4531,7 +4582,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E125" s="0">
         <v>1440</v>
@@ -4557,7 +4608,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E126" s="0">
         <v>2900</v>
@@ -4583,7 +4634,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E127" s="0">
         <v>900</v>
@@ -4609,7 +4660,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E128" s="0">
         <v>1000</v>
@@ -4622,6 +4673,259 @@
       </c>
       <c r="J128" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134" s="0">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="F136" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="0">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J142" s="0">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="F143" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" s="0">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="F144" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J144" s="0">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="F145" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="J145" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="F146" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="J146" s="0">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="F155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J155" s="0">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="F156" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J156" s="0">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="F157" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J157" s="0">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="F158" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J158" s="0">
+        <v>9.88</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="F159" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J159" s="0">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="F160" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J160" s="0">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="F163" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J163" s="0">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="F164" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="0">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="F170" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J170" s="0">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="F172" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J172" s="0">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="F174" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J174" s="0">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="F183" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J183" s="0">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="F185" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J185" s="0">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="F191" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J191" s="0">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="F192" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J192" s="0">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="F196" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="J196" s="0">
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>
